--- a/db_fill/ret_names_1.xlsx
+++ b/db_fill/ret_names_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>名称</t>
   </si>
@@ -22,175 +22,349 @@
     <t>映射名称</t>
   </si>
   <si>
-    <t>昌都市一幼</t>
+    <t>市一幼</t>
   </si>
   <si>
     <t>昌都市第一幼儿园</t>
   </si>
   <si>
-    <t>昌都市一高</t>
+    <t>市一高</t>
   </si>
   <si>
     <t>昌都市第一高级中学</t>
   </si>
   <si>
-    <t>昌都市七幼</t>
+    <t>市七幼</t>
   </si>
   <si>
     <t>昌都市第七幼儿园</t>
   </si>
   <si>
-    <t>昌都市三幼</t>
+    <t>市三幼</t>
   </si>
   <si>
     <t>昌都市第三幼儿园</t>
   </si>
   <si>
-    <t>昌都市二初</t>
+    <t>市二初</t>
   </si>
   <si>
     <t>昌都市第二初级中学</t>
   </si>
   <si>
-    <t>昌都市二小</t>
+    <t>市二小</t>
   </si>
   <si>
     <t>昌都市第二小学</t>
   </si>
   <si>
-    <t>昌都市五幼</t>
+    <t>二小</t>
+  </si>
+  <si>
+    <t>市五幼</t>
   </si>
   <si>
     <t>昌都市第五幼儿园</t>
   </si>
   <si>
-    <t>昌都市人大办</t>
+    <t>市人大办</t>
   </si>
   <si>
     <t>昌都市人大</t>
   </si>
   <si>
-    <t>昌都市人社局</t>
+    <t>市人民医院</t>
+  </si>
+  <si>
+    <t>昌都市人民医院</t>
+  </si>
+  <si>
+    <t>人社局</t>
   </si>
   <si>
     <t>昌都市人社局（市公务员局）</t>
   </si>
   <si>
-    <t>昌都市党校</t>
+    <t>党校</t>
   </si>
   <si>
     <t>中共昌都市委员会党校（昌都市行政学校）</t>
   </si>
   <si>
-    <t>昌都市卫计委</t>
+    <t>卫计委</t>
   </si>
   <si>
     <t>昌都市卫生健康委员会</t>
   </si>
   <si>
-    <t>昌都市四高</t>
+    <t>市四高</t>
   </si>
   <si>
     <t>西藏昌都市第四高级中学</t>
   </si>
   <si>
-    <t>昌都市团委</t>
+    <t>市图书馆</t>
+  </si>
+  <si>
+    <t>昌都市图书馆</t>
+  </si>
+  <si>
+    <t>市政协</t>
+  </si>
+  <si>
+    <t>昌都市政协</t>
+  </si>
+  <si>
+    <t>团委</t>
   </si>
   <si>
     <t>共青团昌都市委员会</t>
   </si>
   <si>
-    <t>昌都市地震局</t>
+    <t>地震局</t>
   </si>
   <si>
     <t>西藏昌都市地震局</t>
   </si>
   <si>
-    <t>昌都市城管局</t>
+    <t>城管局</t>
   </si>
   <si>
     <t>昌都市城市管理和综合执法局</t>
   </si>
   <si>
-    <t>昌都市妇保院</t>
+    <t>妇保院</t>
   </si>
   <si>
     <t>昌都市妇幼保健院</t>
   </si>
   <si>
-    <t>昌都市妇联</t>
+    <t>妇联</t>
   </si>
   <si>
     <t>昌都市妇女联合会</t>
   </si>
   <si>
-    <t>昌都市宣传部</t>
+    <t>宣传部</t>
   </si>
   <si>
     <t>昌都市委宣传部</t>
   </si>
   <si>
-    <t>昌都市扶贫办</t>
+    <t>扶贫办</t>
   </si>
   <si>
     <t>昌都市扶贫开发办公室</t>
   </si>
   <si>
+    <t>教育局</t>
+  </si>
+  <si>
+    <t>昌都市教育局</t>
+  </si>
+  <si>
+    <t>教育局教研室</t>
+  </si>
+  <si>
     <t>昌都市教育局教研室</t>
   </si>
   <si>
-    <t>昌都市文化局</t>
+    <t>文化局</t>
   </si>
   <si>
     <t>西藏昌都市文化局（西藏昌都市文物局）</t>
   </si>
   <si>
-    <t>昌都市昌都报社</t>
+    <t>昌都报社</t>
   </si>
   <si>
     <t>昌都市报社</t>
   </si>
   <si>
-    <t>昌都市林草局</t>
+    <t>林草局</t>
   </si>
   <si>
     <t>昌都市林业和草原局</t>
   </si>
   <si>
-    <t>昌都市残联</t>
+    <t>残联</t>
   </si>
   <si>
     <t>昌都市残疾人联合会</t>
   </si>
   <si>
-    <t>昌都市环保局</t>
+    <t>环保局</t>
   </si>
   <si>
     <t>西藏昌都市生态环境局</t>
   </si>
   <si>
-    <t>昌都市电视台</t>
+    <t>市电视台</t>
   </si>
   <si>
     <t>昌都广播电视台</t>
   </si>
   <si>
-    <t>昌都市科技局</t>
+    <t>科技局</t>
   </si>
   <si>
     <t>昌都市科学技术局</t>
   </si>
   <si>
-    <t>昌都市老干局</t>
+    <t>老干局</t>
   </si>
   <si>
     <t>昌都市委老干部局</t>
   </si>
   <si>
-    <t>昌都市运管局</t>
+    <t>运管局</t>
   </si>
   <si>
     <t>昌都市道路运输管理局</t>
+  </si>
+  <si>
+    <t>市群艺馆</t>
+  </si>
+  <si>
+    <t>昌都市群艺馆</t>
+  </si>
+  <si>
+    <t>应急管理局</t>
+  </si>
+  <si>
+    <t>昌都市应急管理局</t>
+  </si>
+  <si>
+    <t>总工会</t>
+  </si>
+  <si>
+    <t>昌都市总工会</t>
+  </si>
+  <si>
+    <t>民政局</t>
+  </si>
+  <si>
+    <t>昌都市民政局</t>
+  </si>
+  <si>
+    <t>水利局</t>
+  </si>
+  <si>
+    <t>昌都市水利局</t>
+  </si>
+  <si>
+    <t>特殊教育学校</t>
+  </si>
+  <si>
+    <t>昌都市特殊教育学校</t>
+  </si>
+  <si>
+    <t>疾控中心</t>
+  </si>
+  <si>
+    <t>昌都市疾控中心</t>
+  </si>
+  <si>
+    <t>经济和信息化局</t>
+  </si>
+  <si>
+    <t>昌都市经济和信息化局</t>
+  </si>
+  <si>
+    <t>自然资源局</t>
+  </si>
+  <si>
+    <t>昌都市自然资源局</t>
+  </si>
+  <si>
+    <t>藏医院</t>
+  </si>
+  <si>
+    <t>昌都市藏医院</t>
+  </si>
+  <si>
+    <t>财政局</t>
+  </si>
+  <si>
+    <t>昌都市财政局</t>
+  </si>
+  <si>
+    <t>退役军人事务局</t>
+  </si>
+  <si>
+    <t>昌都市退役军人事务局</t>
+  </si>
+  <si>
+    <t>交通运输局</t>
+  </si>
+  <si>
+    <t>昌都市交通运输局</t>
+  </si>
+  <si>
+    <t>住建局</t>
+  </si>
+  <si>
+    <t>昌都市住建局</t>
+  </si>
+  <si>
+    <t>体育局</t>
+  </si>
+  <si>
+    <t>昌都市体育局</t>
+  </si>
+  <si>
+    <t>信访局</t>
+  </si>
+  <si>
+    <t>昌都市信访局</t>
+  </si>
+  <si>
+    <t>农业农村局</t>
+  </si>
+  <si>
+    <t>昌都市农业农村局</t>
+  </si>
+  <si>
+    <t>初级中学</t>
+  </si>
+  <si>
+    <t>昌都市初级中学</t>
+  </si>
+  <si>
+    <t>发改委</t>
+  </si>
+  <si>
+    <t>昌都市发改委</t>
+  </si>
+  <si>
+    <t>商务局</t>
+  </si>
+  <si>
+    <t>昌都市商务局</t>
+  </si>
+  <si>
+    <t>国资委</t>
+  </si>
+  <si>
+    <t>昌都市国资委</t>
+  </si>
+  <si>
+    <t>实验小学</t>
+  </si>
+  <si>
+    <t>昌都市实验小学</t>
+  </si>
+  <si>
+    <t>实验幼儿园</t>
+  </si>
+  <si>
+    <t>昌都市实验幼儿园</t>
+  </si>
+  <si>
+    <t>审计局</t>
+  </si>
+  <si>
+    <t>昌都市审计局</t>
   </si>
 </sst>
 </file>
@@ -198,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,24 +407,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,23 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,36 +474,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,7 +493,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -351,6 +503,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +539,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +611,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +647,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,151 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,21 +747,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +792,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -661,22 +835,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -688,118 +862,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
@@ -1130,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1415"/>
+  <dimension ref="A1:B1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
@@ -1203,110 +1377,112 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
@@ -1336,7 +1512,7 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1380,92 +1556,237 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59"/>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60"/>
@@ -5534,6 +5855,18 @@
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415"/>
+    </row>
+    <row r="1416" spans="1:1">
+      <c r="A1416"/>
+    </row>
+    <row r="1417" spans="1:1">
+      <c r="A1417"/>
+    </row>
+    <row r="1418" spans="1:1">
+      <c r="A1418"/>
+    </row>
+    <row r="1419" spans="1:1">
+      <c r="A1419"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/db_fill/ret_names_1.xlsx
+++ b/db_fill/ret_names_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
   <si>
     <t>名称</t>
   </si>
@@ -73,18 +73,27 @@
     <t>昌都市人大</t>
   </si>
   <si>
+    <t>人大办</t>
+  </si>
+  <si>
     <t>市人民医院</t>
   </si>
   <si>
     <t>昌都市人民医院</t>
   </si>
   <si>
+    <t>人民医院</t>
+  </si>
+  <si>
     <t>人社局</t>
   </si>
   <si>
     <t>昌都市人社局（市公务员局）</t>
   </si>
   <si>
+    <t>人力资源和社会保障局</t>
+  </si>
+  <si>
     <t>党校</t>
   </si>
   <si>
@@ -349,6 +358,9 @@
     <t>昌都市国资委</t>
   </si>
   <si>
+    <t>人民政府国有资产监督管理委员会</t>
+  </si>
+  <si>
     <t>实验小学</t>
   </si>
   <si>
@@ -365,6 +377,378 @@
   </si>
   <si>
     <t>昌都市审计局</t>
+  </si>
+  <si>
+    <t>人民政府办公室</t>
+  </si>
+  <si>
+    <t>昌都市人民政府办公室</t>
+  </si>
+  <si>
+    <t>人民政府政府驻成都办事处</t>
+  </si>
+  <si>
+    <t>昌都市人民政府驻成都办事处</t>
+  </si>
+  <si>
+    <t>人民政府驻成都办事处</t>
+  </si>
+  <si>
+    <t>人民政府驻拉萨办事处</t>
+  </si>
+  <si>
+    <t>昌都市人民政府驻拉萨办事处</t>
+  </si>
+  <si>
+    <t>公安局</t>
+  </si>
+  <si>
+    <t>昌都市公安局</t>
+  </si>
+  <si>
+    <t>公安局交通警察支队</t>
+  </si>
+  <si>
+    <t>昌都市公安局交通警察支队</t>
+  </si>
+  <si>
+    <t>农业技术推广总站</t>
+  </si>
+  <si>
+    <t>昌都市农业技术推广总站</t>
+  </si>
+  <si>
+    <t>农业技术推广中心</t>
+  </si>
+  <si>
+    <t>昌都市农业技术推广中心</t>
+  </si>
+  <si>
+    <t>农业科学研究所</t>
+  </si>
+  <si>
+    <t>昌都市农业科学研究所</t>
+  </si>
+  <si>
+    <t>农牧局</t>
+  </si>
+  <si>
+    <t>动物卫生及植物检疫监督所</t>
+  </si>
+  <si>
+    <t>昌都市动检所</t>
+  </si>
+  <si>
+    <t>卡若区二中</t>
+  </si>
+  <si>
+    <t>卡若区第二初级中学</t>
+  </si>
+  <si>
+    <t>卫生局</t>
+  </si>
+  <si>
+    <t>司法局</t>
+  </si>
+  <si>
+    <t>昌都市司法局</t>
+  </si>
+  <si>
+    <t>国土资源局</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>外事侨务办公室</t>
+  </si>
+  <si>
+    <t>西藏昌都市外事侨务办公室</t>
+  </si>
+  <si>
+    <t>外事办公室</t>
+  </si>
+  <si>
+    <t>西藏昌都市外事办公室</t>
+  </si>
+  <si>
+    <t>安全生产监督管理局</t>
+  </si>
+  <si>
+    <t>市委办公室</t>
+  </si>
+  <si>
+    <t>昌都市委办公室</t>
+  </si>
+  <si>
+    <t>市委政法委</t>
+  </si>
+  <si>
+    <t>昌都市委政法委</t>
+  </si>
+  <si>
+    <t>市委统战部</t>
+  </si>
+  <si>
+    <t>昌都市委统战部</t>
+  </si>
+  <si>
+    <t>市委统战部(宗教办)</t>
+  </si>
+  <si>
+    <t>昌都市委统战部（宗教办）</t>
+  </si>
+  <si>
+    <t>市委统战部（宗教办）</t>
+  </si>
+  <si>
+    <t>市纪委</t>
+  </si>
+  <si>
+    <t>昌都市纪检委</t>
+  </si>
+  <si>
+    <t>广播电影电视局</t>
+  </si>
+  <si>
+    <t>昌都市广播电影电视局</t>
+  </si>
+  <si>
+    <t>广播电视局</t>
+  </si>
+  <si>
+    <t>康巴文化艺术团</t>
+  </si>
+  <si>
+    <t>昌都市康巴文化艺术团</t>
+  </si>
+  <si>
+    <t>政协</t>
+  </si>
+  <si>
+    <t>新区开发建设管理委员会</t>
+  </si>
+  <si>
+    <t>昌都新区开发建设管理委员会</t>
+  </si>
+  <si>
+    <t>新闻出版广电局</t>
+  </si>
+  <si>
+    <t>昌都市新闻出版广电局</t>
+  </si>
+  <si>
+    <t>昌都市强巴林寺管委会</t>
+  </si>
+  <si>
+    <t>昌都市强巴林寺管理委员会</t>
+  </si>
+  <si>
+    <t>机关事务管理局</t>
+  </si>
+  <si>
+    <t>昌都市机关事务管理局</t>
+  </si>
+  <si>
+    <t>林业中心苗圃</t>
+  </si>
+  <si>
+    <t>昌都市林业中心苗圃</t>
+  </si>
+  <si>
+    <t>林业局</t>
+  </si>
+  <si>
+    <t>果扎种畜场</t>
+  </si>
+  <si>
+    <t>昌都市果扎种畜场</t>
+  </si>
+  <si>
+    <t>检察院</t>
+  </si>
+  <si>
+    <t>昌都市检察院</t>
+  </si>
+  <si>
+    <t>民宗局</t>
+  </si>
+  <si>
+    <t>昌都市民宗局</t>
+  </si>
+  <si>
+    <t>民宗局(佛协)</t>
+  </si>
+  <si>
+    <t>昌都市民宗局（佛协）</t>
+  </si>
+  <si>
+    <t>法院</t>
+  </si>
+  <si>
+    <t>昌都市中级人民法院</t>
+  </si>
+  <si>
+    <t>生态环境局</t>
+  </si>
+  <si>
+    <t>电视台</t>
+  </si>
+  <si>
+    <t>畜牧总站</t>
+  </si>
+  <si>
+    <t>昌都市畜牧总站</t>
+  </si>
+  <si>
+    <t>第一幼儿园</t>
+  </si>
+  <si>
+    <t>第一高级中学</t>
+  </si>
+  <si>
+    <t>第七幼儿园</t>
+  </si>
+  <si>
+    <t>第三高级中学</t>
+  </si>
+  <si>
+    <t>昌都市第三高级中学</t>
+  </si>
+  <si>
+    <t>第二幼儿园</t>
+  </si>
+  <si>
+    <t>昌都市第二幼儿园</t>
+  </si>
+  <si>
+    <t>第二高级中学</t>
+  </si>
+  <si>
+    <t>昌都市第二高级中学</t>
+  </si>
+  <si>
+    <t>第五幼儿园</t>
+  </si>
+  <si>
+    <t>第六幼儿园</t>
+  </si>
+  <si>
+    <t>昌都市第六幼儿园</t>
+  </si>
+  <si>
+    <t>第四高级中学</t>
+  </si>
+  <si>
+    <t>粮食局</t>
+  </si>
+  <si>
+    <t>昌都市粮食局</t>
+  </si>
+  <si>
+    <t>纪委</t>
+  </si>
+  <si>
+    <t>经信局</t>
+  </si>
+  <si>
+    <t>经济合作局</t>
+  </si>
+  <si>
+    <t>昌都市经济合作局(昌都市区域协作事务办公室)</t>
+  </si>
+  <si>
+    <t>统计局</t>
+  </si>
+  <si>
+    <t>昌都市统计局</t>
+  </si>
+  <si>
+    <t>群众艺术馆</t>
+  </si>
+  <si>
+    <t>群艺馆</t>
+  </si>
+  <si>
+    <t>职业技术学校</t>
+  </si>
+  <si>
+    <t>昌都市职业技术学校(昌都市教师进修学校)</t>
+  </si>
+  <si>
+    <t>藏语委</t>
+  </si>
+  <si>
+    <t>昌都市藏语文工作委员会办公室(市编译局)</t>
+  </si>
+  <si>
+    <t>觉拥种畜场</t>
+  </si>
+  <si>
+    <t>昌都市觉拥种畜场</t>
+  </si>
+  <si>
+    <t>资源开发和移民安置局</t>
+  </si>
+  <si>
+    <t>昌都市资源开发局</t>
+  </si>
+  <si>
+    <t>路政管理局</t>
+  </si>
+  <si>
+    <t>道路运输管理局</t>
+  </si>
+  <si>
+    <t>食品药品监督管理局</t>
+  </si>
+  <si>
+    <t>昌都市食品药品监督管理局</t>
+  </si>
+  <si>
+    <t>食品药品监督管理局部门</t>
+  </si>
+  <si>
+    <t>第一小学</t>
+  </si>
+  <si>
+    <t>昌都市第一小学</t>
+  </si>
+  <si>
+    <t>第三幼儿园</t>
+  </si>
+  <si>
+    <t>文化局(文物局)</t>
+  </si>
+  <si>
+    <t>文化局（文物局）</t>
+  </si>
+  <si>
+    <t>人力资源和社会保障局(公务员局)</t>
+  </si>
+  <si>
+    <t>人力资源和社会保障局（公务员局）</t>
+  </si>
+  <si>
+    <t>旅发委</t>
+  </si>
+  <si>
+    <t>昌都市旅游局</t>
+  </si>
+  <si>
+    <t>旅游发展委员会(部门)</t>
+  </si>
+  <si>
+    <t>旅游局</t>
+  </si>
+  <si>
+    <t>职业技术学校（部门）</t>
+  </si>
+  <si>
+    <t>藏语委（市编译局）</t>
+  </si>
+  <si>
+    <t>农业科学研究所(部门)</t>
   </si>
 </sst>
 </file>
@@ -373,8 +757,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -387,16 +771,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,24 +810,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,22 +832,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -469,17 +839,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,16 +855,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,14 +901,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +929,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,13 +989,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,73 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,25 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,19 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,8 +1120,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +1131,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,16 +1166,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,23 +1209,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,76 +1219,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
@@ -913,70 +1297,70 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,10 +1688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1419"/>
+  <dimension ref="A1:B1423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
@@ -1401,644 +1785,1061 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95"/>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143"/>
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144"/>
@@ -5867,6 +6668,18 @@
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419"/>
+    </row>
+    <row r="1420" spans="1:1">
+      <c r="A1420"/>
+    </row>
+    <row r="1421" spans="1:1">
+      <c r="A1421"/>
+    </row>
+    <row r="1422" spans="1:1">
+      <c r="A1422"/>
+    </row>
+    <row r="1423" spans="1:1">
+      <c r="A1423"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
